--- a/medicine/Enfance/Les_Locataires_de_la_maison_jaune/Les_Locataires_de_la_maison_jaune.xlsx
+++ b/medicine/Enfance/Les_Locataires_de_la_maison_jaune/Les_Locataires_de_la_maison_jaune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Locataires de la maison jaune (Mother Carey's Chickens) est un roman américain pour la jeunesse écrit par Kate Douglas Wiggin et publié aux États-Unis en 1911. En France, le roman est paru pour la première fois en 1926.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une famille sans père composée de quatre enfants, pauvre mais heureuse, améliore la vie des autres. Leur vie à la maison se complique lorsque Julia, une cousine snob, vient vivre avec eux. Les enfants vont éprouver de nombreuses déceptions...
 </t>
@@ -543,7 +557,9 @@
           <t>Éditions françaises[1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1926 : Les Locataires de la maison jaune - Paris : Éditions Hachette, collection « Bibliothèque verte », traduction de Françoise Martin-Guelliot, illustrations d'André Pécoud, 248 p.
 1938 : Les Locataires de la maison jaune - Hachette
@@ -576,7 +592,9 @@
           <t>Adaptations au cinéma</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1938 : Bonheur en location, film américain de Rowland V. Lee
 1963 : L'Été magique, film musical américain de Walt Disney Productions réalisé par James Neilson (adaptation plus libre)</t>
